--- a/Source/DK.Web/ReportTemplates/ForBarCode.xlsx
+++ b/Source/DK.Web/ReportTemplates/ForBarCode.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TT</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Chủng loại</t>
   </si>
   <si>
-    <t>Danh mục</t>
-  </si>
-  <si>
     <t>Mã tài sản</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>&lt;#row.ChungLoai&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#row.DanhMuc&gt;</t>
   </si>
   <si>
     <t>&lt;#row.NhanHieu&gt;</t>
@@ -530,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,63 +536,60 @@
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -638,52 +629,46 @@
       <c r="M2" s="4">
         <v>13</v>
       </c>
-      <c r="N2" s="4">
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DK.Web/ReportTemplates/ForBarCode.xlsx
+++ b/Source/DK.Web/ReportTemplates/ForBarCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7556C9E-3CCD-43AF-9548-B8C4D0740D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="1008" yWindow="1740" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TT</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Năm sử dụng</t>
   </si>
   <si>
-    <t>Chủng loại</t>
-  </si>
-  <si>
     <t>Mã tài sản</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>Tên tài sản</t>
   </si>
   <si>
-    <t>Tags</t>
-  </si>
-  <si>
     <t>&lt;#row.No&gt;</t>
   </si>
   <si>
@@ -71,9 +66,6 @@
     <t>&lt;#row.Name&gt;</t>
   </si>
   <si>
-    <t>&lt;#row.ChungLoai&gt;</t>
-  </si>
-  <si>
     <t>&lt;#row.NhanHieu&gt;</t>
   </si>
   <si>
@@ -95,22 +87,19 @@
     <t>&lt;#row.PhongQuanLy&gt;</t>
   </si>
   <si>
-    <t>&lt;#row.JoinedTags&gt;</t>
-  </si>
-  <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Khối lượng (kg)</t>
-  </si>
-  <si>
-    <t>&lt;#row.KhoiLuong&gt;</t>
+    <t>Số hiệu</t>
+  </si>
+  <si>
+    <t>&lt;#row.Number&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,10 +193,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,49 +512,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -574,22 +561,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -623,52 +604,40 @@
       <c r="K2" s="4">
         <v>11</v>
       </c>
-      <c r="L2" s="4">
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
